--- a/outputs/base_dist_summaries.xlsx
+++ b/outputs/base_dist_summaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bri.baker\analysis_github\SEKI\Analysis\grove-assessments\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4B73E5F-D2C8-4989-8EF5-FCB5C7CDB35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28B4650-922A-4328-9217-B72F7BA3E239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{62681097-C540-4EC3-AA0E-4B7B12A2C1F4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{62681097-C540-4EC3-AA0E-4B7B12A2C1F4}"/>
   </bookViews>
   <sheets>
     <sheet name="overall_ingrove" sheetId="1" r:id="rId1"/>
@@ -571,7 +571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0079F67C-0F27-4FBE-9FCE-FD24F7E7926F}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="203" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -635,15 +635,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AAC0C8-F46F-482D-8B73-C494DF5CFC5A}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -658,99 +658,113 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6">
+        <v>39</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.15175097000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6">
+        <v>21</v>
+      </c>
+      <c r="E3" s="6">
+        <v>8.1712060000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.10505837</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4.2801560000000002E-2</v>
+      </c>
+      <c r="F5">
+        <f>SUM(E2:E5)</f>
+        <v>0.38132296000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6">
         <v>102</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E6" s="6">
         <v>0.39688716000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6">
-        <v>39</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0.15175097000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="6">
-        <v>21</v>
-      </c>
-      <c r="E5" s="6">
-        <v>8.1712060000000003E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="D7" s="6">
         <v>28</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E7" s="6">
         <v>0.10894942000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6">
-        <v>27</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0.10505837</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -767,12 +781,12 @@
         <v>7.0038909999999996E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>10</v>
@@ -783,30 +797,24 @@
       <c r="E9" s="6">
         <v>4.2801560000000002E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="F9">
+        <f>SUM(E7:E9)</f>
+        <v>0.22178988999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="6">
-        <v>4.2801560000000002E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="24" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>11</v>
+      <c r="F10">
+        <f>F9+F5</f>
+        <v>0.60311285000000003</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E9">
+    <sortCondition ref="B2:B9"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -815,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDD48EB-2AC3-49AB-88C1-9F75172DEC2C}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView zoomScale="139" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
